--- a/DATA_goal/Junction_Flooding_309.xlsx
+++ b/DATA_goal/Junction_Flooding_309.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="6" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="8" max="8"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
-    <col width="6" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44990.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.43</v>
+        <v>4.35</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.5</v>
+        <v>5.03</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.08</v>
+        <v>0.78</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>1</v>
+        <v>10.02</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0.89</v>
+        <v>8.94</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.45</v>
+        <v>4.48</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0.92</v>
+        <v>9.15</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.59</v>
+        <v>5.85</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.25</v>
+        <v>2.5</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.6</v>
+        <v>6.03</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.74</v>
+        <v>7.4</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.43</v>
+        <v>4.26</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.73</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.34</v>
+        <v>3.37</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0.57</v>
+        <v>5.74</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.3</v>
+        <v>3.05</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.01</v>
+        <v>0.14</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.02</v>
+        <v>0.23</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>5.46</v>
+        <v>54.64</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>1.11</v>
+        <v>11.07</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.3</v>
+        <v>2.96</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>0.66</v>
+        <v>6.58</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.49</v>
+        <v>4.91</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.08</v>
+        <v>0.76</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.64</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.31</v>
+        <v>3.12</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.52</v>
+        <v>5.18</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.25</v>
+        <v>2.52</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.64</v>
+        <v>6.42</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.02</v>
+        <v>0.19</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0.72</v>
+        <v>7.16</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.2</v>
+        <v>2.01</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.44</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44990.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>2.02</v>
+        <v>20.25</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.59</v>
+        <v>15.94</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.1</v>
+        <v>1.01</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>4.42</v>
+        <v>44.22</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>3.69</v>
+        <v>36.88</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.63</v>
+        <v>16.34</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>5.66</v>
+        <v>56.63</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>2.48</v>
+        <v>24.85</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>1.12</v>
+        <v>11.16</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.76</v>
+        <v>17.55</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.94</v>
+        <v>19.38</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.88</v>
+        <v>18.79</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.49</v>
+        <v>4.88</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.57</v>
+        <v>15.73</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>2.31</v>
+        <v>23.1</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.33</v>
+        <v>13.3</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.02</v>
+        <v>0.17</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.06</v>
+        <v>0.61</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>23.84</v>
+        <v>238.36</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>4.5</v>
+        <v>45.04</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.44</v>
+        <v>14.41</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>3.02</v>
+        <v>30.16</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.66</v>
+        <v>16.56</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.22</v>
+        <v>2.18</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>2.93</v>
+        <v>29.33</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>1.3</v>
+        <v>13.01</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>1.26</v>
+        <v>12.61</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>1.32</v>
+        <v>13.21</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.97</v>
+        <v>19.68</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.01</v>
+        <v>0.11</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>5.13</v>
+        <v>51.26</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.86</v>
+        <v>8.58</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.84</v>
+        <v>18.42</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44990.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.56</v>
+        <v>15.59</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.22</v>
+        <v>12.17</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.74</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>3.4</v>
+        <v>34.02</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>2.83</v>
+        <v>28.33</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.25</v>
+        <v>12.51</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>4.94</v>
+        <v>49.39</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.91</v>
+        <v>19.12</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.86</v>
+        <v>8.6</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.34</v>
+        <v>13.37</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.47</v>
+        <v>14.73</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.44</v>
+        <v>14.45</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.38</v>
+        <v>3.77</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.21</v>
+        <v>12.1</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.78</v>
+        <v>17.76</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.02</v>
+        <v>10.24</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.01</v>
+        <v>0.12</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.45</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>18.13</v>
+        <v>181.29</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>3.47</v>
+        <v>34.69</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.11</v>
+        <v>11.08</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>2.33</v>
+        <v>23.28</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.27</v>
+        <v>12.69</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.17</v>
+        <v>1.66</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>2.44</v>
+        <v>24.39</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>1</v>
+        <v>9.99</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.96</v>
+        <v>9.56</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.02</v>
+        <v>10.19</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.5</v>
+        <v>15.02</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.01</v>
+        <v>0.09</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>4.49</v>
+        <v>44.87</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.66</v>
+        <v>6.62</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.41</v>
+        <v>14.14</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44990.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>2.14</v>
+        <v>21.42</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.64</v>
+        <v>16.43</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.09</v>
+        <v>0.89</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>4.67</v>
+        <v>46.68</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>3.87</v>
+        <v>38.75</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.7</v>
+        <v>17.03</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>6.53</v>
+        <v>65.33</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>2.61</v>
+        <v>26.13</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>1.18</v>
+        <v>11.75</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.79</v>
+        <v>17.92</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.95</v>
+        <v>19.54</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.98</v>
+        <v>19.82</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.53</v>
+        <v>5.27</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.67</v>
+        <v>16.69</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>2.42</v>
+        <v>24.21</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.4</v>
+        <v>13.99</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.02</v>
+        <v>0.17</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.61</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>25</v>
+        <v>250.02</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>4.72</v>
+        <v>47.25</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.53</v>
+        <v>15.33</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>3.19</v>
+        <v>31.86</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.71</v>
+        <v>17.1</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.22</v>
+        <v>2.24</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>3.22</v>
+        <v>32.24</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.37</v>
+        <v>13.69</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>1.26</v>
+        <v>12.61</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.41</v>
+        <v>14.06</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>2.02</v>
+        <v>20.19</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.01</v>
+        <v>0.08</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>5.92</v>
+        <v>59.17</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.9</v>
+        <v>8.99</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.94</v>
+        <v>19.39</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_309.xlsx
+++ b/DATA_goal/Junction_Flooding_309.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44990.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>4.35</v>
+        <v>4.347</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>5.03</v>
+        <v>5.032</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.78</v>
+        <v>0.777</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>10.02</v>
+        <v>10.022</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>8.94</v>
+        <v>8.942</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>4.48</v>
+        <v>4.483</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>9.15</v>
+        <v>9.151999999999999</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>5.85</v>
+        <v>5.852</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>2.5</v>
+        <v>2.498</v>
       </c>
       <c r="K2" s="4" t="n">
         <v>6.03</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>7.4</v>
+        <v>7.398</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>4.26</v>
+        <v>4.257</v>
       </c>
       <c r="N2" s="4" t="n">
         <v>0.73</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>3.37</v>
+        <v>3.371</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>5.74</v>
+        <v>5.736</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>3.05</v>
+        <v>3.045</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.14</v>
+        <v>0.138</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.23</v>
+        <v>0.227</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>54.64</v>
+        <v>54.637</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>11.07</v>
+        <v>11.069</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>2.96</v>
+        <v>2.959</v>
       </c>
       <c r="W2" s="4" t="n">
         <v>6.58</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>4.91</v>
+        <v>4.913</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.76</v>
+        <v>0.755</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>5.64</v>
+        <v>5.641</v>
       </c>
       <c r="AA2" s="4" t="n">
         <v>3.12</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>5.18</v>
+        <v>5.177</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>2.52</v>
+        <v>2.517</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>6.42</v>
+        <v>6.419</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.19</v>
+        <v>0.192</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>7.16</v>
+        <v>7.159</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>2.01</v>
+        <v>2.015</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>4.4</v>
+        <v>4.399</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44990.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>20.25</v>
+        <v>20.248</v>
       </c>
       <c r="C3" s="4" t="n">
         <v>15.94</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.01</v>
+        <v>1.006</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>44.22</v>
+        <v>44.224</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>36.88</v>
+        <v>36.884</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>16.34</v>
+        <v>16.335</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>56.63</v>
+        <v>56.633</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>24.85</v>
+        <v>24.847</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>11.16</v>
+        <v>11.159</v>
       </c>
       <c r="K3" s="4" t="n">
         <v>17.55</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>19.38</v>
+        <v>19.383</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>18.79</v>
+        <v>18.787</v>
       </c>
       <c r="N3" s="4" t="n">
         <v>4.88</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>15.73</v>
+        <v>15.727</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>23.1</v>
+        <v>23.102</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>13.3</v>
+        <v>13.299</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.17</v>
+        <v>0.166</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.61</v>
+        <v>0.612</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>238.36</v>
+        <v>238.361</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>45.04</v>
+        <v>45.037</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>14.41</v>
+        <v>14.406</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>30.16</v>
+        <v>30.158</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>16.56</v>
+        <v>16.562</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>2.18</v>
+        <v>2.184</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>29.33</v>
+        <v>29.327</v>
       </c>
       <c r="AA3" s="4" t="n">
         <v>13.01</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>12.61</v>
+        <v>12.609</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>13.21</v>
+        <v>13.211</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>19.68</v>
+        <v>19.682</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.11</v>
+        <v>0.115</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>51.26</v>
+        <v>51.258</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>8.58</v>
+        <v>8.579000000000001</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>18.42</v>
+        <v>18.418</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44990.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>15.59</v>
+        <v>15.586</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>12.17</v>
+        <v>12.169</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.74</v>
+        <v>0.744</v>
       </c>
       <c r="E4" s="4" t="n">
         <v>34.02</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>28.33</v>
+        <v>28.333</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>12.51</v>
+        <v>12.511</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>49.39</v>
+        <v>49.394</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>19.12</v>
+        <v>19.115</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>8.6</v>
+        <v>8.603</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>13.37</v>
+        <v>13.369</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>14.73</v>
+        <v>14.732</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>14.45</v>
+        <v>14.445</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>3.77</v>
+        <v>3.774</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>12.1</v>
+        <v>12.102</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>17.76</v>
+        <v>17.759</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>10.24</v>
+        <v>10.236</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.12</v>
+        <v>0.119</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.45</v>
+        <v>0.445</v>
       </c>
       <c r="T4" s="4" t="n">
         <v>181.29</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>34.69</v>
+        <v>34.686</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>11.08</v>
+        <v>11.082</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>23.28</v>
+        <v>23.281</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>12.69</v>
+        <v>12.694</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.66</v>
+        <v>1.657</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>24.39</v>
+        <v>24.388</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>9.99</v>
+        <v>9.989000000000001</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>9.56</v>
+        <v>9.558</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>10.19</v>
+        <v>10.195</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>15.02</v>
+        <v>15.018</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.092</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>44.87</v>
+        <v>44.872</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>6.62</v>
+        <v>6.622</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>14.14</v>
+        <v>14.143</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>19.39</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44990.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>6.56</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>14.36</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>11.99</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>5.31</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>8.109999999999999</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>3.69</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>5.75</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>6.09</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>7.59</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>72.69</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>4.62</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>10.01</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>5.49</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>4.21</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>4.17</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>4.29</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>6.45</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>23.59</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>5.96</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_309.xlsx
+++ b/DATA_goal/Junction_Flooding_309.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,7 +468,7 @@
     <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
     <col width="8" customWidth="1" min="28" max="28"/>
     <col width="8" customWidth="1" min="29" max="29"/>
     <col width="8" customWidth="1" min="30" max="30"/>
@@ -967,103 +967,207 @@
         <v>44990.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>21.42</v>
+        <v>21.418</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>16.43</v>
+        <v>16.428</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.89</v>
+        <v>0.885</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>46.68</v>
+        <v>46.683</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>38.75</v>
+        <v>38.746</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>17.03</v>
+        <v>17.033</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>65.33</v>
+        <v>65.331</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>26.13</v>
+        <v>26.129</v>
       </c>
       <c r="J5" s="4" t="n">
         <v>11.75</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>17.92</v>
+        <v>17.923</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>19.54</v>
+        <v>19.539</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>19.82</v>
+        <v>19.816</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>5.27</v>
+        <v>5.274</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>16.69</v>
+        <v>16.688</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>24.21</v>
+        <v>24.206</v>
       </c>
       <c r="Q5" s="4" t="n">
         <v>13.99</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.17</v>
+        <v>0.169</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.61</v>
+        <v>0.606</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>250.02</v>
+        <v>250.024</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>47.25</v>
+        <v>47.249</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>15.33</v>
+        <v>15.327</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>31.86</v>
+        <v>31.864</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>17.1</v>
+        <v>17.097</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>2.24</v>
+        <v>2.236</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>32.24</v>
+        <v>32.237</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>13.69</v>
+        <v>13.694</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>12.61</v>
+        <v>12.608</v>
       </c>
       <c r="AC5" s="4" t="n">
         <v>14.06</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>20.19</v>
+        <v>20.188</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0.08</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>59.17</v>
+        <v>59.174</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>8.99</v>
+        <v>8.994</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>19.39</v>
+        <v>19.385</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44990.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>6.56</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>14.36</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>11.99</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>5.31</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>8.109999999999999</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>72.69</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>4.62</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>10.01</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>5.49</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>4.21</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>23.59</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>5.96</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_309.xlsx
+++ b/DATA_goal/Junction_Flooding_309.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,7 +468,7 @@
     <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
     <col width="8" customWidth="1" min="28" max="28"/>
     <col width="8" customWidth="1" min="29" max="29"/>
     <col width="8" customWidth="1" min="30" max="30"/>
@@ -967,207 +967,103 @@
         <v>44990.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>21.418</v>
+        <v>21.42</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>16.428</v>
+        <v>16.43</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.885</v>
+        <v>0.89</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>46.683</v>
+        <v>46.68</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>38.746</v>
+        <v>38.75</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>17.033</v>
+        <v>17.03</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>65.331</v>
+        <v>65.33</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>26.129</v>
+        <v>26.13</v>
       </c>
       <c r="J5" s="4" t="n">
         <v>11.75</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>17.923</v>
+        <v>17.92</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>19.539</v>
+        <v>19.54</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>19.816</v>
+        <v>19.82</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>5.274</v>
+        <v>5.27</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>16.688</v>
+        <v>16.69</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>24.206</v>
+        <v>24.21</v>
       </c>
       <c r="Q5" s="4" t="n">
         <v>13.99</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.169</v>
+        <v>0.17</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.606</v>
+        <v>0.61</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>250.024</v>
+        <v>250.02</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>47.249</v>
+        <v>47.25</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>15.327</v>
+        <v>15.33</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>31.864</v>
+        <v>31.86</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>17.097</v>
+        <v>17.1</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>2.236</v>
+        <v>2.24</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>32.237</v>
+        <v>32.24</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>13.694</v>
+        <v>13.69</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>12.608</v>
+        <v>12.61</v>
       </c>
       <c r="AC5" s="4" t="n">
         <v>14.06</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>20.188</v>
+        <v>20.19</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0.08</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>59.174</v>
+        <v>59.17</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>8.994</v>
+        <v>8.99</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>19.385</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44990.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>6.56</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>14.36</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>11.99</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>5.31</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>8.109999999999999</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>3.69</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>5.75</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>6.09</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>7.59</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>72.69</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>4.62</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>10.01</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>5.49</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>4.21</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>4.17</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>4.29</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>6.45</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>23.59</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>5.96</v>
+        <v>19.39</v>
       </c>
     </row>
   </sheetData>
